--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="WBS" sheetId="2" r:id="rId2"/>
-    <sheet name="WBS (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="WBS3" sheetId="2" r:id="rId2"/>
+    <sheet name="WBS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'WBS (2)'!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WBS!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WBS3'!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -426,13 +426,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -449,7 +449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -568,16 +568,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -605,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -628,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -645,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -662,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -679,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -696,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -713,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -730,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -748,11 +749,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E10">
-    <sortState ref="A2:E10">
-      <sortCondition ref="A2:A10"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,14 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="WBS3" sheetId="2" r:id="rId2"/>
     <sheet name="WBS" sheetId="3" r:id="rId3"/>
+    <sheet name="Main" sheetId="4" r:id="rId4"/>
+    <sheet name="Type_A_211M_724_To_935_S" sheetId="5" r:id="rId5"/>
+    <sheet name="Type_A_50M_965_TO_1015_S" sheetId="6" r:id="rId6"/>
+    <sheet name="Type_A_40M_4500_TO_4570_S" sheetId="7" r:id="rId7"/>
+    <sheet name="Type_A_40M_35020_TO_35100_S" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Type_A_211M_724_To_935_S!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Type_A_40M_35020_TO_35100_S!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Type_A_40M_4500_TO_4570_S!$A$1:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Type_A_50M_965_TO_1015_S!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WBS!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WBS3'!$A$1:$E$7</definedName>
   </definedNames>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +88,51 @@
   </si>
   <si>
     <t>Contract</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Allocation_Sheet_Name</t>
+  </si>
+  <si>
+    <t>Type_A_211M_724_To_935_S</t>
+  </si>
+  <si>
+    <t>Type_A_50M_965_TO_1015_S</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>Cum</t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t>Curing CC Block</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>Curing</t>
   </si>
 </sst>
 </file>
@@ -94,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +161,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,16 +176,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,7 +515,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -426,13 +529,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -449,7 +552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -464,7 +567,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -481,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -498,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -515,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -532,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -567,18 +670,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -595,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -612,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -629,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -646,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -663,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -680,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -697,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -714,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -731,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -746,6 +849,1002 @@
       </c>
       <c r="E10" s="1">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4">
+        <v>33338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>38350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -529,13 +529,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -552,7 +552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -674,14 +674,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -732,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -749,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -783,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -865,14 +865,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -886,7 +886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -914,12 +914,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -934,17 +934,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -964,7 +964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -984,7 +984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>33338</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>38350</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1175,17 +1175,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -1325,7 +1325,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>6</v>
@@ -1345,7 +1345,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>7</v>
@@ -1365,7 +1365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
@@ -1385,7 +1385,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1419,14 +1419,14 @@
       <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1640,14 +1640,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Curing</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M724  to M935=935M</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M965  to M1015=50M</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,19 +200,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -222,14 +218,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,10 +857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,9 +868,10 @@
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -885,8 +884,11 @@
       <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -896,12 +898,15 @@
       <c r="C2" s="4">
         <v>87</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4">
@@ -913,16 +918,19 @@
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,7 +976,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4">
@@ -988,7 +996,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4">
@@ -1008,7 +1016,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -1028,7 +1036,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="4">
@@ -1048,7 +1056,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4">
@@ -1068,7 +1076,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4">
@@ -1088,7 +1096,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4">
@@ -1108,7 +1116,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4">
@@ -1128,7 +1136,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4">
@@ -1148,7 +1156,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4">
@@ -1174,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1209,7 +1217,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4">
@@ -1221,7 +1229,7 @@
       <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>100</v>
       </c>
     </row>
@@ -1229,7 +1237,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4">
@@ -1241,7 +1249,7 @@
       <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>1188</v>
       </c>
     </row>
@@ -1249,7 +1257,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -1261,7 +1269,7 @@
       <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>7900</v>
       </c>
     </row>
@@ -1269,7 +1277,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="4">
@@ -1281,7 +1289,7 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>100</v>
       </c>
     </row>
@@ -1289,7 +1297,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4">
@@ -1301,7 +1309,7 @@
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>1653</v>
       </c>
     </row>
@@ -1309,7 +1317,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4">
@@ -1321,7 +1329,7 @@
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>133</v>
       </c>
     </row>
@@ -1329,7 +1337,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4">
@@ -1341,7 +1349,7 @@
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>1445</v>
       </c>
     </row>
@@ -1349,7 +1357,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4">
@@ -1361,7 +1369,7 @@
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>133</v>
       </c>
     </row>
@@ -1369,7 +1377,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4">
@@ -1381,7 +1389,7 @@
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>328</v>
       </c>
     </row>
@@ -1389,7 +1397,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4">
@@ -1401,7 +1409,7 @@
       <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>100</v>
       </c>
     </row>
@@ -1450,7 +1458,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4">
@@ -1470,7 +1478,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4">
@@ -1482,7 +1490,7 @@
       <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>950</v>
       </c>
     </row>
@@ -1490,7 +1498,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -1502,7 +1510,7 @@
       <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>4151</v>
       </c>
     </row>
@@ -1510,7 +1518,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
@@ -1522,7 +1530,7 @@
       <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>330</v>
       </c>
     </row>
@@ -1530,7 +1538,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
@@ -1542,7 +1550,7 @@
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>68</v>
       </c>
     </row>
@@ -1550,7 +1558,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
@@ -1562,7 +1570,7 @@
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>770</v>
       </c>
     </row>
@@ -1570,7 +1578,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
@@ -1582,7 +1590,7 @@
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>68</v>
       </c>
     </row>
@@ -1590,7 +1598,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
@@ -1602,7 +1610,7 @@
       <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>193</v>
       </c>
     </row>
@@ -1610,7 +1618,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4">
@@ -1671,7 +1679,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4">
@@ -1691,7 +1699,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4">
@@ -1703,7 +1711,7 @@
       <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>950</v>
       </c>
     </row>
@@ -1711,7 +1719,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -1723,7 +1731,7 @@
       <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>4151</v>
       </c>
     </row>
@@ -1731,7 +1739,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
@@ -1743,7 +1751,7 @@
       <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>330</v>
       </c>
     </row>
@@ -1751,7 +1759,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4">
@@ -1763,7 +1771,7 @@
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>68</v>
       </c>
     </row>
@@ -1771,7 +1779,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
@@ -1783,7 +1791,7 @@
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>770</v>
       </c>
     </row>
@@ -1791,7 +1799,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4">
@@ -1803,7 +1811,7 @@
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>68</v>
       </c>
     </row>
@@ -1811,7 +1819,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4">
@@ -1823,7 +1831,7 @@
       <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>193</v>
       </c>
     </row>
@@ -1831,7 +1839,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4">

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,15 @@
     <sheet name="Type_A_50M_965_TO_1015_S" sheetId="6" r:id="rId6"/>
     <sheet name="Type_A_40M_4500_TO_4570_S" sheetId="7" r:id="rId7"/>
     <sheet name="Type_A_40M_35020_TO_35100_S" sheetId="8" r:id="rId8"/>
+    <sheet name="FF_30M_at_KM_1000_S" sheetId="9" r:id="rId9"/>
+    <sheet name="FF_15M_at_KM_4520_S" sheetId="11" r:id="rId10"/>
+    <sheet name="FF_15M_at_KM_35050_S" sheetId="12" r:id="rId11"/>
+    <sheet name="T_B5_724M_M0_TO_M724_S" sheetId="13" r:id="rId12"/>
+    <sheet name="T_B5_1165M_1015_TO_2180_S" sheetId="14" r:id="rId13"/>
+    <sheet name="T_B5_1150M_9200_TO_10350_S" sheetId="15" r:id="rId14"/>
+    <sheet name="RS_850M_4600_TO_7800_S" sheetId="16" r:id="rId15"/>
+    <sheet name="RS_3850M_M25200_TO_M36630_S" sheetId="17" r:id="rId16"/>
+    <sheet name="Equipment Production Rate" sheetId="10" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Type_A_211M_724_To_935_S!$A$1:$E$11</definedName>
@@ -34,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -129,29 +138,192 @@
     <t>2,3</t>
   </si>
   <si>
-    <t>3,8</t>
-  </si>
-  <si>
     <t>Curing</t>
   </si>
   <si>
     <t>Site Name</t>
   </si>
   <si>
-    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M724  to M935=935M</t>
-  </si>
-  <si>
-    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M965  to M1015=50M</t>
+    <t>Type_A_40M_4500_TO_4570_S</t>
+  </si>
+  <si>
+    <t>Type_A_40M_35020_TO_35100_S</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment in between M35020  to M35100=40M</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mobilization and Site Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ring Bundh Removal</t>
+  </si>
+  <si>
+    <t>FF_30M_at_KM_1000_S</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>6,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(50X50X50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(50X50X30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ring Bundh construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Excavation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Embankment Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Sand Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Geotextile Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Pea Gravel Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing CC Block</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M724  to M935=211M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M965  to M1015=50M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment in between M4500  to M4570=40M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Geo Bag Placing(175) Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X20)</t>
+  </si>
+  <si>
+    <t>50X50X50</t>
+  </si>
+  <si>
+    <t>50X50X30</t>
+  </si>
+  <si>
+    <t>40X40X40</t>
+  </si>
+  <si>
+    <t>40X40X20</t>
+  </si>
+  <si>
+    <t>Excavator</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Mixuture Machie</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Daily Prod(8hrs)</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_4520_S</t>
+  </si>
+  <si>
+    <t>Construction of 30M Flood Fuse on  Submersible Embankment   M1000 to  M1030  of  Dharmapasha Ruibeel Project under HFMLIP</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_35050_S</t>
+  </si>
+  <si>
+    <t>Construction of 15M Flood Fuse on  Submersible Embankment   M35050  of  Dharmapasha Ruibeel Project under HFMLIP</t>
+  </si>
+  <si>
+    <t>Construction of 15M Flood Fuse on  Submersible Embankment   M4520  of  Dharmapasha Ruibeel Project under HFMLIP</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>Geo Bag Placing(125 Kg)</t>
+  </si>
+  <si>
+    <t>Close Turfing</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M0  to M724=724M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M1015  to M2180=1165M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M9200  to M10350=1150M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_724M_M0_TO_M724_S</t>
+  </si>
+  <si>
+    <t>T_B5_1165M_1015_TO_2180_S</t>
+  </si>
+  <si>
+    <t>T_B5_1150M_9200_TO_10350_S</t>
+  </si>
+  <si>
+    <t>RS_850M_4600_TO_7800_S</t>
+  </si>
+  <si>
+    <t>RS_3850M_M25200_TO_M36630_S</t>
+  </si>
+  <si>
+    <t>Resentioning of the Dharmapasha Ruibeel Submergible Embankment in between M4600  to M7800=850M under HFMLIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,11 +372,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,13 +398,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,7 +407,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,8 +727,1519 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1356</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2951</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1781</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3917</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1270</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2390</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1781</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3917</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="14">
+        <v>9358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="15">
+        <v>11251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="15">
+        <v>9842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="15">
+        <v>18105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="15">
+        <v>15836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="15">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="15">
+        <v>17871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="15">
+        <v>15632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1">
+        <v>53092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -527,13 +2252,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -550,7 +2275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -565,7 +2290,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -582,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -599,7 +2324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -616,7 +2341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -633,7 +2358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -672,14 +2397,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -696,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -713,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -730,7 +2455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -747,7 +2472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -764,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -781,7 +2506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -798,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -815,7 +2540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -832,7 +2557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -857,83 +2582,239 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>87</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
         <v>87</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>87</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>87</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>87</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>87</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="E14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -942,233 +2823,233 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>-1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>33338</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
         <v>34</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>38350</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1183,233 +3064,233 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>-1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1421,216 +3302,236 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>-1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="4">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1642,216 +3543,236 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>-1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="4">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1859,4 +3780,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="RS_850M_4600_TO_7800_S" sheetId="16" r:id="rId15"/>
     <sheet name="RS_3850M_M25200_TO_M36630_S" sheetId="17" r:id="rId16"/>
     <sheet name="Equipment Production Rate" sheetId="10" r:id="rId17"/>
+    <sheet name=" Block Placing Production Rate" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Type_A_211M_724_To_935_S!$A$1:$E$11</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -295,6 +296,36 @@
   </si>
   <si>
     <t>Resentioning of the Dharmapasha Ruibeel Submergible Embankment in between M4600  to M7800=850M under HFMLIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Group </t>
+  </si>
+  <si>
+    <t>20 Labour</t>
+  </si>
+  <si>
+    <t>Dayliy Placing Including Bed Preparation for 40X40X20 CC Block</t>
+  </si>
+  <si>
+    <t>unit area of block</t>
+  </si>
+  <si>
+    <t>Bed Area</t>
+  </si>
+  <si>
+    <t>Sand Filter 100mm thick</t>
+  </si>
+  <si>
+    <t>cum</t>
+  </si>
+  <si>
+    <t>Geo Textile Filter</t>
+  </si>
+  <si>
+    <t>Gravel Filter</t>
   </si>
 </sst>
 </file>
@@ -727,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,14 +772,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -768,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -788,7 +819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -809,7 +840,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -830,7 +861,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -851,7 +882,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -872,7 +903,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -892,7 +923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -912,7 +943,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -932,7 +963,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -952,7 +983,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -972,7 +1003,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -992,7 +1023,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1012,7 +1043,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1032,7 +1063,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1052,7 +1083,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1072,7 +1103,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1105,14 +1136,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1152,7 +1183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1173,7 +1204,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1194,7 +1225,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1215,7 +1246,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1236,7 +1267,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1256,7 +1287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1276,7 +1307,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1296,7 +1327,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1316,7 +1347,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1336,7 +1367,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1356,7 +1387,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1376,7 +1407,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1396,7 +1427,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1416,7 +1447,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1449,14 +1480,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1476,7 +1507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1496,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1516,7 +1547,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1536,7 +1567,7 @@
         <v>11251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1556,7 +1587,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1576,7 +1607,7 @@
         <v>9842</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1609,14 +1640,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1656,7 +1687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1676,7 +1707,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1696,7 +1727,7 @@
         <v>18105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1716,7 +1747,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1736,7 +1767,7 @@
         <v>15836</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1769,14 +1800,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1796,7 +1827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1816,7 +1847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1836,7 +1867,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1856,7 +1887,7 @@
         <v>17871</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1876,7 +1907,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1896,7 +1927,7 @@
         <v>15632</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1929,14 +1960,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +1987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1976,7 +2007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1996,7 +2027,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2016,7 +2047,7 @@
         <v>11722</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2045,18 +2076,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2076,7 +2107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2096,7 +2127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2116,7 +2147,7 @@
         <v>15246</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2136,7 +2167,7 @@
         <v>53092</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2169,13 +2200,13 @@
       <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2183,7 +2214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -2191,7 +2222,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2199,7 +2230,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2207,7 +2238,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2215,7 +2246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2223,7 +2254,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2231,7 +2262,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2241,6 +2272,115 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3">
+        <f>0.4*0.4</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B3*B4</f>
+        <v>224.00000000000006</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B5*0.1</f>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3">
+        <v>224</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2252,13 +2392,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2275,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2290,7 +2430,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2307,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2324,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2341,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2358,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2394,17 +2534,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2421,7 +2563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2438,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2455,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2472,7 +2614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2489,7 +2631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2506,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2523,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2540,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2557,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2588,15 +2730,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -2630,7 +2772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -2647,7 +2789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -2664,7 +2806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -2681,7 +2823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2698,7 +2840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -2715,7 +2857,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -2732,7 +2874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>78</v>
       </c>
@@ -2749,7 +2891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>79</v>
       </c>
@@ -2766,7 +2908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
@@ -2783,7 +2925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>81</v>
       </c>
@@ -2796,7 +2938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>82</v>
       </c>
@@ -2809,7 +2951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="17"/>
     </row>
   </sheetData>
@@ -2820,20 +2962,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2853,7 +2995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2873,7 +3015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2893,7 +3035,7 @@
         <v>33338</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2913,7 +3055,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2933,7 +3075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2953,7 +3095,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2973,7 +3115,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2993,7 +3135,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3013,7 +3155,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3032,8 +3174,11 @@
       <c r="F10" s="3">
         <v>38350</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3067,14 +3212,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3114,7 +3259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3134,7 +3279,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3154,7 +3299,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3174,7 +3319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3194,7 +3339,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3214,7 +3359,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3234,7 +3379,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3254,7 +3399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3274,7 +3419,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3308,14 +3453,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3335,7 +3480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3355,7 +3500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3375,7 +3520,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3395,7 +3540,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3415,7 +3560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3435,7 +3580,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3455,7 +3600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3475,7 +3620,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3495,7 +3640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3515,7 +3660,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3549,14 +3694,14 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3576,7 +3721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3596,7 +3741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3616,7 +3761,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3636,7 +3781,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3656,7 +3801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3676,7 +3821,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3696,7 +3841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3716,7 +3861,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3736,7 +3881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3756,7 +3901,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3790,13 +3935,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3816,7 +3961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3836,7 +3981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3856,7 +4001,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3876,7 +4021,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3896,7 +4041,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3916,7 +4061,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3936,7 +4081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3956,7 +4101,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3976,7 +4121,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3996,7 +4141,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4016,7 +4161,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4036,7 +4181,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4056,7 +4201,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4076,7 +4221,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4096,7 +4241,7 @@
         <v>13683</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4116,7 +4261,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -772,14 +772,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -903,7 +903,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -923,7 +923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -963,7 +963,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1136,14 +1136,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1480,14 +1480,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>11251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>9842</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1640,14 +1640,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>18105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>15836</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1800,14 +1800,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>17871</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>15632</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1960,14 +1960,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>11722</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2080,14 +2080,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>15246</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>53092</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2200,13 +2200,13 @@
       <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2279,23 +2279,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>84</v>
       </c>
@@ -2392,13 +2392,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2537,16 +2537,16 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2730,15 +2730,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>78</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>79</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>81</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>82</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="E14" s="17"/>
     </row>
   </sheetData>
@@ -2964,18 +2964,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>33338</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3212,14 +3212,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3453,14 +3453,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3694,14 +3694,14 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3935,13 +3935,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>13683</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Gravel Filter</t>
+  </si>
+  <si>
+    <t>5,4</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -772,14 +775,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -799,7 +802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -819,7 +822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -840,7 +843,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -861,7 +864,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -882,7 +885,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -903,7 +906,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -923,7 +926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -943,7 +946,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -963,7 +966,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -983,7 +986,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1136,14 +1139,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1204,7 +1207,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1225,7 +1228,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1246,7 +1249,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1267,7 +1270,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1480,14 +1483,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>11251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>9842</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1640,14 +1643,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>18105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>15836</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1800,14 +1803,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>17871</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>15632</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1960,14 +1963,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>11722</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2080,14 +2083,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>15246</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>53092</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2194,79 +2197,79 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>17</v>
       </c>
     </row>
@@ -2279,23 +2282,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -2304,7 +2307,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>84</v>
       </c>
@@ -2392,13 +2395,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2430,7 +2433,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2537,16 +2540,16 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2730,15 +2733,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>78</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>79</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>80</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>81</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>82</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="17"/>
     </row>
   </sheetData>
@@ -2964,18 +2967,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3034,8 +3037,11 @@
       <c r="F3" s="3">
         <v>33338</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -3055,7 +3061,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3105,8 +3111,8 @@
       <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -3115,7 +3121,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3125,8 +3131,8 @@
       <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <v>6</v>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -3135,7 +3141,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3145,8 +3151,8 @@
       <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <v>7</v>
+      <c r="D9" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -3155,7 +3161,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>26</v>
@@ -3178,7 +3184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3212,14 +3218,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3453,14 +3459,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3694,14 +3700,14 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3821,7 +3827,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3861,7 +3867,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3935,13 +3941,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3981,7 +3987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>13683</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_List" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Site Name</t>
   </si>
   <si>
-    <t>4,8</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Mobilization and Site Preparation</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>2,3,4,5</t>
   </si>
   <si>
-    <t>6,12</t>
-  </si>
-  <si>
     <t xml:space="preserve">      CC Block Manufacture(50X50X50)</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>Daily Prod(8hrs)</t>
   </si>
   <si>
-    <t>6,11</t>
-  </si>
-  <si>
     <t>Geo Bag Placing(125 Kg)</t>
   </si>
   <si>
@@ -400,13 +391,73 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>BDT Thousand</t>
+  </si>
+  <si>
+    <t>Type_A_50M_965_TO_1015_S</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M965  to M1015=50M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Type_A_40M_4500_TO_4570_S</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment in between M4500  to M4570=40M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Type_A_40M_35020_TO_35100_S</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dharmapasha Ruibeel Submergible Embankment in between M35020  to M35100=40M</t>
+  </si>
+  <si>
+    <t>16-510</t>
+  </si>
+  <si>
+    <t>40-450</t>
+  </si>
+  <si>
+    <t>16-470</t>
+  </si>
+  <si>
+    <t>40-380-20</t>
+  </si>
+  <si>
+    <t>Geobag</t>
+  </si>
+  <si>
+    <t>175 kg geobag</t>
+  </si>
+  <si>
+    <t>245/day by group 20 incld bed prep</t>
+  </si>
+  <si>
+    <t>FF_30M_at_KM_1000_S</t>
+  </si>
+  <si>
+    <t>Construction of 30M Flood Fuse on  Submersible Embankment   M1000 to  M1030  of  Dharmapasha Ruibeel Project under HFMLIP</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_4520_S</t>
+  </si>
+  <si>
+    <t>Construction of 15M Flood Fuse on  Submersible Embankment   M4520  of  Dharmapasha Ruibeel Project under HFMLIP</t>
+  </si>
+  <si>
+    <t>FF_15M_at_KM_35050_S</t>
+  </si>
+  <si>
+    <t>Construction of 15M Flood Fuse on  Submersible Embankment   M35050  of  Dharmapasha Ruibeel Project under HFMLIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +495,19 @@
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -465,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -512,11 +576,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,9 +635,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -592,6 +666,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -890,7 +991,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -904,7 +1005,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -915,7 +1016,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
@@ -926,7 +1027,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -937,7 +1038,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -948,10 +1049,10 @@
         <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -959,10 +1060,10 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -970,10 +1071,10 @@
         <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -981,7 +1082,7 @@
         <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -992,10 +1093,10 @@
         <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1003,10 +1104,10 @@
         <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1014,7 +1115,7 @@
         <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>25</v>
@@ -1025,10 +1126,10 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1036,10 +1137,10 @@
         <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1062,7 +1163,7 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1182,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1101,8 +1205,11 @@
       <c r="F2" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1121,8 +1228,11 @@
       <c r="F3" s="4">
         <v>950</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1141,8 +1251,11 @@
       <c r="F4" s="4">
         <v>4151</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1161,8 +1274,11 @@
       <c r="F5" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1181,8 +1297,11 @@
       <c r="F6" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1190,10 +1309,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
@@ -1201,8 +1320,11 @@
       <c r="F7" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1210,10 +1332,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -1221,8 +1343,11 @@
       <c r="F8" s="4">
         <v>770</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1230,10 +1355,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
@@ -1241,8 +1366,11 @@
       <c r="F9" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1250,19 +1378,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="4">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>5101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1280,6 +1411,9 @@
       </c>
       <c r="F11" s="3">
         <v>100</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1290,19 +1424,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1321,13 +1456,16 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -1336,18 +1474,21 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9">
         <v>17</v>
@@ -1361,13 +1502,16 @@
       <c r="F3" s="9">
         <v>2670</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9">
         <v>18</v>
@@ -1381,13 +1525,16 @@
       <c r="F4" s="9">
         <v>4795</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9">
         <v>12</v>
@@ -1401,13 +1548,16 @@
       <c r="F5" s="9">
         <v>3563</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
         <v>6</v>
@@ -1421,8 +1571,11 @@
       <c r="F6" s="4">
         <v>2655</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1433,21 +1586,24 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
@@ -1461,19 +1617,22 @@
       <c r="F8" s="3">
         <v>2052</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9">
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
@@ -1481,19 +1640,22 @@
       <c r="F9" s="3">
         <v>2524</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9">
         <v>15</v>
       </c>
       <c r="D10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>26</v>
@@ -1501,19 +1663,22 @@
       <c r="F10" s="3">
         <v>1751</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9">
         <v>7</v>
       </c>
       <c r="D11" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>26</v>
@@ -1521,13 +1686,16 @@
       <c r="F11" s="3">
         <v>361</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9">
         <v>7</v>
@@ -1541,19 +1709,22 @@
       <c r="F12" s="3">
         <v>2457</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9">
         <v>7</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>26</v>
@@ -1561,19 +1732,22 @@
       <c r="F13" s="3">
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
@@ -1581,19 +1755,22 @@
       <c r="F14" s="3">
         <v>4021</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
+      <c r="D15" s="3">
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -1601,13 +1778,16 @@
       <c r="F15" s="3">
         <v>13683</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9">
         <v>7</v>
@@ -1616,23 +1796,26 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>1641</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="G16" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="32">
         <v>7</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="32">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1641,6 +1824,111 @@
       <c r="F17" s="3">
         <v>100</v>
       </c>
+      <c r="G17" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="26"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="26"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="26"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="26"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="26"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="26"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="26"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="26"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="26"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="26"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="26"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,7 +1940,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1681,13 +1969,16 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -1696,10 +1987,13 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1707,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9">
         <v>9</v>
@@ -1721,14 +2015,16 @@
       <c r="F3" s="9">
         <v>1356</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="19" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9">
         <v>11</v>
@@ -1742,14 +2038,16 @@
       <c r="F4" s="9">
         <v>2951</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="19" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9">
         <v>6</v>
@@ -1763,14 +2061,16 @@
       <c r="F5" s="9">
         <v>1781</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="19" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
         <v>7</v>
@@ -1784,7 +2084,9 @@
       <c r="F6" s="4">
         <v>3917</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="25" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
@@ -1797,13 +2099,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4">
         <v>100</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1811,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9">
         <v>5</v>
@@ -1824,6 +2129,9 @@
       </c>
       <c r="F8" s="4">
         <v>1482</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1831,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
@@ -1844,6 +2152,9 @@
       </c>
       <c r="F9" s="4">
         <v>1193</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1851,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9">
         <v>15</v>
@@ -1864,6 +2175,9 @@
       </c>
       <c r="F10" s="4">
         <v>1022</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1871,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9">
         <v>5</v>
@@ -1884,6 +2198,9 @@
       </c>
       <c r="F11" s="4">
         <v>268</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1891,19 +2208,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9">
         <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="4">
         <v>1837</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1911,19 +2231,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4">
         <v>358</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1931,19 +2254,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9">
         <v>5</v>
       </c>
       <c r="D14" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="4">
         <v>1851</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1951,19 +2277,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9">
         <v>5</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
+      <c r="D15" s="3">
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="12">
         <v>10005</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1971,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9">
         <v>5</v>
@@ -1980,13 +2309,16 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4">
         <v>1185</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1996,7 +2328,7 @@
       <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="32">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2004,6 +2336,9 @@
       </c>
       <c r="F17" s="4">
         <v>100</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2013,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2045,13 +2380,16 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -2060,10 +2398,13 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2071,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9">
         <v>9</v>
@@ -2083,16 +2424,18 @@
         <v>25</v>
       </c>
       <c r="F3" s="9">
-        <v>1270</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>1356</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9">
         <v>11</v>
@@ -2104,16 +2447,18 @@
         <v>25</v>
       </c>
       <c r="F4" s="9">
-        <v>2390</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>2951</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9">
         <v>6</v>
@@ -2127,14 +2472,16 @@
       <c r="F5" s="9">
         <v>1781</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="19" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
         <v>7</v>
@@ -2148,7 +2495,9 @@
       <c r="F6" s="4">
         <v>3917</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="25" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
@@ -2161,13 +2510,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4">
         <v>100</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2175,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9">
         <v>5</v>
@@ -2188,6 +2540,9 @@
       </c>
       <c r="F8" s="4">
         <v>1482</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2195,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
@@ -2207,7 +2562,10 @@
         <v>26</v>
       </c>
       <c r="F9" s="4">
-        <v>1123</v>
+        <v>1193</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2215,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9">
         <v>15</v>
@@ -2227,7 +2585,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="4">
-        <v>670</v>
+        <v>1022</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2235,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9">
         <v>5</v>
@@ -2247,7 +2608,10 @@
         <v>26</v>
       </c>
       <c r="F11" s="4">
-        <v>242</v>
+        <v>268</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2255,19 +2619,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9">
         <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="4">
-        <v>1668</v>
+        <v>1837</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2275,19 +2642,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4">
-        <v>322</v>
+        <v>358</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2295,19 +2665,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
+      <c r="D14" s="3">
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12">
-        <v>9358</v>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2315,39 +2688,68 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9">
         <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1185</v>
+        <v>25</v>
+      </c>
+      <c r="F15" s="12">
+        <v>10005</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7</v>
+      <c r="B16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
       </c>
       <c r="D16" s="3">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1185</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+      <c r="D17" s="32">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>100</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -2404,7 +2806,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
@@ -2415,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9">
         <v>15</v>
@@ -2435,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="9">
         <v>15</v>
@@ -2455,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9">
         <v>15</v>
@@ -2475,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9">
         <v>25</v>
@@ -2484,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="13">
         <v>9842</v>
@@ -2555,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -2564,7 +2966,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
@@ -2575,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9">
         <v>30</v>
@@ -2595,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="9">
         <v>20</v>
@@ -2615,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9">
         <v>20</v>
@@ -2635,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9">
         <v>30</v>
@@ -2644,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="13">
         <v>15836</v>
@@ -2715,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -2724,7 +3126,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
@@ -2735,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9">
         <v>15</v>
@@ -2755,7 +3157,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="9">
         <v>20</v>
@@ -2775,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9">
         <v>20</v>
@@ -2795,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9">
         <v>25</v>
@@ -2804,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="13">
         <v>15632</v>
@@ -2875,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -2884,7 +3286,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
@@ -2895,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9">
         <v>15</v>
@@ -2915,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="9">
         <v>30</v>
@@ -2924,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
         <v>11722</v>
@@ -2995,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -3004,7 +3406,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
@@ -3015,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9">
         <v>30</v>
@@ -3035,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="9">
         <v>40</v>
@@ -3044,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1">
         <v>53092</v>
@@ -3077,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I6"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3094,35 +3496,35 @@
     <col min="9" max="9" width="11.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>74</v>
+      <c r="G1" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -3148,13 +3550,13 @@
         <f>1/G2</f>
         <v>6.1728395061728392E-3</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>115</v>
+      <c r="I2" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
         <v>50</v>
@@ -3180,13 +3582,13 @@
         <f t="shared" ref="H3:H6" si="2">1/G3</f>
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>114</v>
+      <c r="I3" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
@@ -3212,13 +3614,13 @@
         <f t="shared" si="2"/>
         <v>3.1545741324921135E-3</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>116</v>
+      <c r="I4" s="20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
@@ -3244,13 +3646,13 @@
         <f t="shared" si="2"/>
         <v>1.5797788309636651E-3</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>104</v>
+      <c r="I5" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -3276,8 +3678,8 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>105</v>
+      <c r="I6" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3285,15 +3687,15 @@
     </row>
     <row r="9" spans="1:9">
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>300</v>
@@ -3301,15 +3703,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1">
         <v>760</v>
       </c>
+      <c r="H11">
+        <f>1/760</f>
+        <v>1.3157894736842105E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1">
         <v>17</v>
@@ -3317,35 +3723,35 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3">
         <v>50</v>
@@ -3370,7 +3776,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -3395,7 +3801,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3">
         <v>30</v>
@@ -3416,6 +3822,14 @@
       <c r="G17" s="3">
         <f t="shared" si="3"/>
         <v>2489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3426,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3445,9 +3859,9 @@
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3456,51 +3870,63 @@
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -3544,13 +3970,25 @@
       <c r="P2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>25</v>
@@ -3594,13 +4032,25 @@
       <c r="P3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="S3" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -3627,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>1.3157894736842105E-3</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -3644,13 +4094,25 @@
       <c r="P4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -3694,16 +4156,28 @@
       <c r="P5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3744,16 +4218,28 @@
       <c r="P6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>202</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3794,16 +4280,28 @@
       <c r="P7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>203</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3844,163 +4342,211 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="20">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="19">
         <v>204</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20">
-        <v>1</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="20">
+      <c r="B9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="19">
         <v>205</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="20">
-        <v>1</v>
-      </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="20">
+      <c r="M10" s="19">
+        <v>1</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="19">
         <v>206</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="B11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
         <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="20">
-        <v>1</v>
-      </c>
-      <c r="O11" s="20">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11" s="19">
+        <v>1</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>207</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
@@ -4044,171 +4590,270 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
+        <v>208</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3">
         <v>301</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.7</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>0.11111111111111112</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>0.18518518518518517</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>9.4637223974763401E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <v>0.04</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="J14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="3">
         <v>0.18</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N14" s="3">
         <v>0.18</v>
       </c>
-      <c r="N13" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="O14">
+        <f>8/1400</f>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="P14" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="3">
+      <c r="Q14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="T14">
+        <v>1.6326530612244899E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3">
         <v>401</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="4">
         <v>210</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>33</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>56</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <v>29</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>14</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>12</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J15" s="3">
+        <v>120</v>
+      </c>
+      <c r="K15" s="3">
         <v>60</v>
       </c>
-      <c r="L14" s="3">
-        <v>53</v>
-      </c>
-      <c r="M14" s="3">
-        <v>53</v>
-      </c>
-      <c r="N14" s="3">
-        <v>53</v>
-      </c>
-      <c r="O14" s="3">
-        <v>106</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="L15" s="3">
+        <v>54</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>54</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="P15" s="3">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="Q15" s="3">
+        <v>60</v>
+      </c>
+      <c r="R15" s="3">
+        <v>60</v>
+      </c>
+      <c r="S15" s="3">
+        <v>60</v>
+      </c>
+      <c r="T15" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="19"/>
       <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="27"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="1"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="1"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="27"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="3:21">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="27"/>
-      <c r="U19" s="23"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="3:21">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="26"/>
+      <c r="U20" s="22"/>
     </row>
     <row r="21" spans="3:21">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="22"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="3:21">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="E22" s="21"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="3:21">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4237,16 +4882,16 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3">
         <v>1400</v>
@@ -4257,7 +4902,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3">
         <f>0.4*0.4</f>
@@ -4269,7 +4914,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3">
         <f>B3*B4</f>
@@ -4281,19 +4926,19 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3">
         <f>B5*0.1</f>
         <v>22.400000000000006</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3">
         <v>224</v>
@@ -4304,18 +4949,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3">
         <v>22.4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4676,10 +5321,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4721,11 +5366,110 @@
         <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="E3" s="15"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8">
+      <c r="A4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8">
+      <c r="A5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8">
+      <c r="A6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8">
+      <c r="A7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8">
+      <c r="A8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4737,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4769,77 +5513,77 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>103</v>
+      <c r="G1" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>7</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>-1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>100</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>107</v>
+      <c r="G2" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>14</v>
       </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>33338</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>105</v>
+      <c r="G3" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>8</v>
       </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>5012</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>104</v>
+      <c r="G4" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4862,7 +5606,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4885,7 +5629,7 @@
         <v>6974</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4907,8 +5651,8 @@
       <c r="F7" s="3">
         <v>560</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>109</v>
+      <c r="G7" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4931,7 +5675,7 @@
         <v>6098</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4954,7 +5698,7 @@
         <v>560</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4977,10 +5721,10 @@
         <v>38350</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5003,7 +5747,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5014,249 +5758,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4">
-        <v>7900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5266,7 +5771,7 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -5285,8 +5790,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5302,11 +5810,292 @@
       <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1188</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7900</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4">
+        <f>F3+F4</f>
+        <v>9088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1653</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4">
+        <v>133</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1445</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>133</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9088</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5325,8 +6114,11 @@
       <c r="F3" s="4">
         <v>950</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5345,8 +6137,11 @@
       <c r="F4" s="4">
         <v>4151</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5362,11 +6157,14 @@
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5385,8 +6183,11 @@
       <c r="F6" s="4">
         <v>330</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5394,10 +6195,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
@@ -5405,8 +6206,11 @@
       <c r="F7" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5414,10 +6218,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -5425,8 +6229,11 @@
       <c r="F8" s="4">
         <v>770</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5434,10 +6241,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
@@ -5445,8 +6252,11 @@
       <c r="F9" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5454,19 +6264,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="4">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>5101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5484,6 +6297,9 @@
       </c>
       <c r="F11" s="3">
         <v>100</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_List" sheetId="19" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -451,6 +451,30 @@
   </si>
   <si>
     <t>Construction of 15M Flood Fuse on  Submersible Embankment   M35050  of  Dharmapasha Ruibeel Project under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_724M_M0_TO_M724_S</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M0  to M724=724M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_1165M_1015_TO_2180_S</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M1015  to M2180=1165M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_1150M_9200_TO_10350_S</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dharmapasha Ruibeel Submergible Embankment from M9200  to M10350=1150M under HFMLIP</t>
+  </si>
+  <si>
+    <t>48-100</t>
+  </si>
+  <si>
+    <t>Turfing Sod</t>
   </si>
 </sst>
 </file>
@@ -529,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -589,11 +613,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,9 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,6 +746,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,12 +1072,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1156,11 +1247,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1182,7 +1273,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1205,7 +1296,7 @@
       <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1228,7 +1319,7 @@
       <c r="F3" s="4">
         <v>950</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1251,7 +1342,7 @@
       <c r="F4" s="4">
         <v>4151</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1320,7 +1411,7 @@
       <c r="F7" s="4">
         <v>68</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1426,15 +1517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G17"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1456,7 +1547,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1479,7 +1570,7 @@
       <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1502,7 +1593,7 @@
       <c r="F3" s="9">
         <v>2670</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1525,7 +1616,7 @@
       <c r="F4" s="9">
         <v>4795</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1548,7 +1639,7 @@
       <c r="F5" s="9">
         <v>3563</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1560,7 +1651,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1571,7 +1662,7 @@
       <c r="F6" s="4">
         <v>2655</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1594,7 +1685,7 @@
       <c r="F7" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1617,7 +1708,7 @@
       <c r="F8" s="3">
         <v>2052</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1640,7 +1731,7 @@
       <c r="F9" s="3">
         <v>2524</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1663,7 +1754,7 @@
       <c r="F10" s="3">
         <v>1751</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1675,7 +1766,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -1686,7 +1777,7 @@
       <c r="F11" s="3">
         <v>361</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1698,7 +1789,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
@@ -1709,7 +1800,7 @@
       <c r="F12" s="3">
         <v>2457</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1721,7 +1812,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
@@ -1732,7 +1823,7 @@
       <c r="F13" s="3">
         <v>480</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1744,7 +1835,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
@@ -1755,7 +1846,7 @@
       <c r="F14" s="3">
         <v>4021</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1767,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
@@ -1778,7 +1869,7 @@
       <c r="F15" s="3">
         <v>13683</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1801,21 +1892,21 @@
       <c r="F16" s="3">
         <v>1641</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>7</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1824,111 +1915,111 @@
       <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="26"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="26"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="26"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="26"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="26"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="26"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="26"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1937,20 +2028,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1969,11 +2060,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1992,11 +2083,11 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2015,11 +2106,12 @@
       <c r="F3" s="9">
         <v>1356</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2038,11 +2130,12 @@
       <c r="F4" s="9">
         <v>2951</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2061,11 +2154,12 @@
       <c r="F5" s="9">
         <v>1781</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2084,11 +2178,12 @@
       <c r="F6" s="4">
         <v>3917</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2107,11 +2202,11 @@
       <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2130,11 +2225,11 @@
       <c r="F8" s="4">
         <v>1482</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2153,11 +2248,11 @@
       <c r="F9" s="4">
         <v>1193</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2176,11 +2271,11 @@
       <c r="F10" s="4">
         <v>1022</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2188,7 +2283,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -2199,11 +2294,11 @@
       <c r="F11" s="4">
         <v>268</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2211,7 +2306,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
@@ -2222,11 +2317,11 @@
       <c r="F12" s="4">
         <v>1837</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2234,7 +2329,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
@@ -2245,11 +2340,11 @@
       <c r="F13" s="4">
         <v>358</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2257,7 +2352,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
@@ -2268,11 +2363,11 @@
       <c r="F14" s="4">
         <v>1851</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2280,7 +2375,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
@@ -2291,11 +2386,11 @@
       <c r="F15" s="12">
         <v>10005</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2314,7 +2409,7 @@
       <c r="F16" s="4">
         <v>1185</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2328,7 +2423,7 @@
       <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2337,9 +2432,41 @@
       <c r="F17" s="4">
         <v>100</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>110</v>
       </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2348,20 +2475,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2380,11 +2507,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2403,11 +2530,11 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2426,11 +2553,12 @@
       <c r="F3" s="9">
         <v>1356</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2449,11 +2577,12 @@
       <c r="F4" s="9">
         <v>2951</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2472,11 +2601,12 @@
       <c r="F5" s="9">
         <v>1781</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2495,11 +2625,12 @@
       <c r="F6" s="4">
         <v>3917</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2518,11 +2649,11 @@
       <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2541,11 +2672,11 @@
       <c r="F8" s="4">
         <v>1482</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2564,11 +2695,11 @@
       <c r="F9" s="4">
         <v>1193</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2587,11 +2718,11 @@
       <c r="F10" s="4">
         <v>1022</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2599,7 +2730,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -2610,11 +2741,11 @@
       <c r="F11" s="4">
         <v>268</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2622,7 +2753,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
@@ -2633,11 +2764,11 @@
       <c r="F12" s="4">
         <v>1837</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2645,7 +2776,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
@@ -2656,19 +2787,19 @@
       <c r="F13" s="4">
         <v>358</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
@@ -2676,79 +2807,56 @@
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="12">
+        <v>10005</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="12">
-        <v>10005</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1185</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16" s="31">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4">
-        <v>1185</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7</v>
-      </c>
-      <c r="D17" s="32">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4">
         <v>100</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2759,20 +2867,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2791,8 +2899,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2811,8 +2922,11 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2828,11 +2942,14 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="28">
         <v>3495</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2840,7 +2957,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -2848,11 +2965,14 @@
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="28">
         <v>11251</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2860,7 +2980,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -2868,11 +2988,14 @@
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="28">
         <v>3388</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2880,19 +3003,22 @@
         <v>59</v>
       </c>
       <c r="C6" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="13">
+        <v>27</v>
+      </c>
+      <c r="F6" s="28">
         <v>9842</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2911,6 +3037,57 @@
       <c r="F7" s="4">
         <v>100</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,20 +3096,21 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2951,8 +3129,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2968,11 +3149,14 @@
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="42">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2991,8 +3175,11 @@
       <c r="F3" s="13">
         <v>5623</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3000,7 +3187,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -3011,8 +3198,11 @@
       <c r="F4" s="13">
         <v>18105</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3020,7 +3210,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -3031,8 +3221,11 @@
       <c r="F5" s="13">
         <v>5451</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3040,10 +3233,10 @@
         <v>59</v>
       </c>
       <c r="C6" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
@@ -3051,8 +3244,11 @@
       <c r="F6" s="13">
         <v>15836</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3068,8 +3264,11 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="42">
         <v>100</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3079,20 +3278,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3108,11 +3307,14 @@
       <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3128,11 +3330,14 @@
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="42">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3151,8 +3356,11 @@
       <c r="F3" s="13">
         <v>5551</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3160,7 +3368,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -3171,8 +3379,11 @@
       <c r="F4" s="13">
         <v>17871</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3180,7 +3391,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -3191,8 +3402,11 @@
       <c r="F5" s="13">
         <v>5380</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3200,10 +3414,10 @@
         <v>59</v>
       </c>
       <c r="C6" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
@@ -3211,8 +3425,11 @@
       <c r="F6" s="13">
         <v>15632</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3228,8 +3445,11 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="42">
         <v>100</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3239,20 +3459,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3271,85 +3491,100 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="45">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="36">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="46">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="48">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="36">
         <v>3366</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="48">
         <v>30</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="36">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="36">
         <v>11722</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="36">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="36">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="46">
         <v>100</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3359,20 +3594,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3391,8 +3626,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3411,8 +3649,11 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3428,11 +3669,14 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>15246</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3446,13 +3690,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
         <v>53092</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3470,6 +3717,9 @@
       </c>
       <c r="F5" s="4">
         <v>100</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3479,43 +3729,43 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="4" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I1" s="13" t="s">
@@ -3523,26 +3773,26 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>50</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>50</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>50</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <f>(B2*C2*D2)/(30*30*30)</f>
         <v>4.6296296296296298</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>750</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <f>ROUNDUP(F2/E2,0)</f>
         <v>162</v>
       </c>
@@ -3550,31 +3800,31 @@
         <f>1/G2</f>
         <v>6.1728395061728392E-3</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>50</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>50</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E6" si="0">(B3*C3*D3)/(30*30*30)</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>750</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G4" si="1">ROUNDUP(F3/E3,0)</f>
         <v>270</v>
       </c>
@@ -3582,31 +3832,31 @@
         <f t="shared" ref="H3:H6" si="2">1/G3</f>
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>40</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>40</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>40</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>2.3703703703703702</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>750</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
@@ -3614,31 +3864,31 @@
         <f t="shared" si="2"/>
         <v>3.1545741324921135E-3</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>40</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>1.1851851851851851</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>750</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <f>ROUNDUP(F5/E5,0)</f>
         <v>633</v>
       </c>
@@ -3646,31 +3896,31 @@
         <f t="shared" si="2"/>
         <v>1.5797788309636651E-3</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>30</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>750</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <f>ROUNDUP(F6/E6,0)</f>
         <v>750</v>
       </c>
@@ -3678,7 +3928,7 @@
         <f t="shared" si="2"/>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3775,7 +4025,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="3">
@@ -3785,7 +4035,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3">
         <f>(B16*C16)/(40*40)</f>
@@ -3795,71 +4045,120 @@
         <v>1400</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:G17" si="3">ROUNDUP(F16/E16,0)</f>
+        <f t="shared" ref="G16:G19" si="3">ROUNDUP(F16/E16,0)</f>
         <v>896</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>77</v>
+      <c r="A17" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B17" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <f>(B17*C17)/(40*40)</f>
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <v>1400</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3">
+        <f>(B18*C18)/(40*40)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <f>(B19*C19)/(40*40)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
         <v>2489</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>127</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -3872,19 +4171,19 @@
       <c r="D1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>102</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -3911,17 +4210,20 @@
       <c r="Q1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -3982,8 +4284,11 @@
       <c r="T2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="3">
         <v>102</v>
       </c>
@@ -4044,8 +4349,11 @@
       <c r="T3" s="3">
         <v>3.3E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3">
         <v>103</v>
       </c>
@@ -4106,8 +4414,11 @@
       <c r="T4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="3">
         <v>104</v>
       </c>
@@ -4168,8 +4479,11 @@
       <c r="T5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4">
         <v>201</v>
       </c>
@@ -4230,8 +4544,11 @@
       <c r="T6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4">
         <v>202</v>
       </c>
@@ -4292,8 +4609,11 @@
       <c r="T7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4">
         <v>203</v>
       </c>
@@ -4354,194 +4674,206 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="19">
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="18">
         <v>204</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0</v>
-      </c>
-      <c r="S9" s="19">
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>1</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
         <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="19">
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="18">
         <v>205</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="19">
-        <v>1</v>
-      </c>
-      <c r="N10" s="19">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0</v>
-      </c>
-      <c r="S10" s="19">
+      <c r="M10" s="18">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
         <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="19">
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="18">
         <v>206</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
         <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="19">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
-        <v>0</v>
-      </c>
-      <c r="P11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>0</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0</v>
-      </c>
-      <c r="S11" s="19">
+      <c r="N11" s="18">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
         <v>0</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="3">
         <v>207</v>
       </c>
@@ -4602,8 +4934,11 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="3">
         <v>208</v>
       </c>
@@ -4664,196 +4999,270 @@
       <c r="T13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="3">
+        <v>209</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="3">
         <v>301</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>0.7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>0.11111111111111112</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>0.18518518518518517</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <v>9.4637223974763401E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>0.04</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="3">
         <v>0.4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="3">
         <v>0.1</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L15" s="3">
         <v>0.18</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M15" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N15" s="3">
         <v>0.18</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <f>8/1400</f>
         <v>5.7142857142857143E-3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P15" s="3">
         <v>0.7</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q15" s="3">
         <v>0.1</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R15" s="3">
         <v>0.1</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S15" s="3">
         <v>0.1</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>1.6326530612244899E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3">
+      <c r="U15" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3">
         <v>401</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>210</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>33</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>56</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>29</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>14</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>12</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <v>120</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="3">
         <v>60</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L16" s="3">
         <v>54</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="3">
         <v>5.4</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N16" s="3">
         <v>54</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O16" s="3">
         <v>1.72</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P16" s="3">
         <v>210</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q16" s="3">
         <v>60</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R16" s="3">
         <v>60</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S16" s="3">
         <v>60</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T16" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:21">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="U16" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="18"/>
       <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="26"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="3:21">
-      <c r="C19" s="1"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="26"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="3:21">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="26"/>
-      <c r="U20" s="22"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="3:21">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="25"/>
+      <c r="U21" s="21"/>
     </row>
     <row r="22" spans="3:21">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="21"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="3:21">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="E23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4868,11 +5277,11 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4975,7 +5384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4989,10 +5398,10 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5134,13 +5543,13 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5321,17 +5730,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5382,11 +5791,11 @@
       <c r="D3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="14" t="s">
         <v>118</v>
       </c>
@@ -5399,11 +5808,11 @@
       <c r="D4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="14" t="s">
         <v>120</v>
       </c>
@@ -5416,59 +5825,110 @@
       <c r="D5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="30">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29">
         <v>87</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="30">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
         <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="30">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
         <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>87</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>87</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>87</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5481,17 +5941,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5513,7 +5973,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5521,22 +5981,22 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5544,22 +6004,22 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="4">
         <v>14</v>
       </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="4">
         <v>33338</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="41" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5567,22 +6027,22 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="4">
         <v>5012</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="41" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5651,7 +6111,7 @@
       <c r="F7" s="3">
         <v>560</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5764,11 +6224,11 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5790,7 +6250,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5813,7 +6273,7 @@
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5836,7 +6296,7 @@
       <c r="F3" s="4">
         <v>1188</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5859,7 +6319,7 @@
       <c r="F4" s="4">
         <v>7900</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>101</v>
       </c>
       <c r="I4">
@@ -5932,7 +6392,7 @@
       <c r="F7" s="4">
         <v>133</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6042,11 +6502,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6068,7 +6528,7 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6091,7 +6551,7 @@
       <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6114,7 +6574,7 @@
       <c r="F3" s="4">
         <v>950</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6137,7 +6597,7 @@
       <c r="F4" s="4">
         <v>4151</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6206,7 +6666,7 @@
       <c r="F7" s="4">
         <v>68</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>106</v>
       </c>
     </row>

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_List" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>Ancilary  for 50M</t>
+  </si>
+  <si>
+    <t>40-670-30</t>
   </si>
 </sst>
 </file>
@@ -1180,12 +1183,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1355,11 +1358,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1629,11 +1632,11 @@
       <selection activeCell="B14" sqref="B14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2142,11 +2145,11 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2589,11 +2592,11 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2981,11 +2984,11 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3210,12 +3213,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3392,11 +3395,11 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3573,11 +3576,11 @@
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3708,11 +3711,11 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3839,19 +3842,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" customWidth="1"/>
-    <col min="10" max="10" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" customWidth="1"/>
+    <col min="10" max="10" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4348,25 +4351,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -4427,11 +4430,14 @@
       <c r="T1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="3">
         <v>101</v>
       </c>
@@ -4495,8 +4501,11 @@
       <c r="U2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="3">
         <v>102</v>
       </c>
@@ -4560,8 +4569,11 @@
       <c r="U3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>103</v>
       </c>
@@ -4625,8 +4637,11 @@
       <c r="U4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>104</v>
       </c>
@@ -4690,8 +4705,11 @@
       <c r="U5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="4">
         <v>201</v>
       </c>
@@ -4755,8 +4773,11 @@
       <c r="U6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="4">
         <v>202</v>
       </c>
@@ -4820,8 +4841,11 @@
       <c r="U7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4">
         <v>203</v>
       </c>
@@ -4885,8 +4909,11 @@
       <c r="U8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="18">
         <v>204</v>
       </c>
@@ -4950,8 +4977,11 @@
       <c r="U9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="18">
         <v>205</v>
       </c>
@@ -5015,8 +5045,11 @@
       <c r="U10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="18">
         <v>206</v>
       </c>
@@ -5080,8 +5113,11 @@
       <c r="U11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="3">
         <v>207</v>
       </c>
@@ -5145,8 +5181,11 @@
       <c r="U12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>208</v>
       </c>
@@ -5210,8 +5249,11 @@
       <c r="U13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="3">
         <v>209</v>
       </c>
@@ -5275,8 +5317,11 @@
       <c r="U14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="3">
         <v>301</v>
       </c>
@@ -5341,8 +5386,11 @@
       <c r="U15" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>401</v>
       </c>
@@ -5405,6 +5453,10 @@
       </c>
       <c r="U16" s="5">
         <v>6</v>
+      </c>
+      <c r="V16" s="5">
+        <f>V15*300</f>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:21">
@@ -5485,15 +5537,15 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="15" customFormat="1" ht="42" customHeight="1">
@@ -5896,11 +5948,11 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6003,7 +6055,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6017,10 +6069,10 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6162,13 +6214,13 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6355,11 +6407,11 @@
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6414,7 +6466,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>118</v>
       </c>
@@ -6431,7 +6483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
@@ -6448,7 +6500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="28.8">
       <c r="A6" s="6" t="s">
         <v>129</v>
       </c>
@@ -6465,7 +6517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -6482,7 +6534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="3" t="s">
         <v>133</v>
       </c>
@@ -6499,7 +6551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
+    <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -6516,7 +6568,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45">
+    <row r="10" spans="1:5" ht="28.8">
       <c r="A10" s="3" t="s">
         <v>137</v>
       </c>
@@ -6533,7 +6585,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45">
+    <row r="11" spans="1:5" ht="28.8">
       <c r="A11" s="3" t="s">
         <v>139</v>
       </c>
@@ -6550,7 +6602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="28.8">
       <c r="A12" s="49" t="s">
         <v>144</v>
       </c>
@@ -6567,7 +6619,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="28.8">
       <c r="A13" s="49" t="s">
         <v>146</v>
       </c>
@@ -6584,7 +6636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="28.8">
       <c r="A14" s="5" t="s">
         <v>147</v>
       </c>
@@ -6618,13 +6670,13 @@
       <selection activeCell="B2" sqref="B2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6897,11 +6949,11 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7171,11 +7223,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_List" sheetId="19" r:id="rId1"/>
@@ -13,28 +13,42 @@
     <sheet name="WBS3" sheetId="2" r:id="rId4"/>
     <sheet name="WBS" sheetId="3" r:id="rId5"/>
     <sheet name="Main" sheetId="4" r:id="rId6"/>
-    <sheet name="Type_A_665M_M2950_TO_M3615" sheetId="5" r:id="rId7"/>
-    <sheet name="T_B5_30M_M6900_TO_M6930" sheetId="13" r:id="rId8"/>
-    <sheet name="T_B5_210M_M8550_TO_M8760" sheetId="14" r:id="rId9"/>
-    <sheet name="T_B5_353M_M8822_TO_M9175" sheetId="15" r:id="rId10"/>
-    <sheet name="T_B5_212M_M12440_TO_M12652" sheetId="22" r:id="rId11"/>
-    <sheet name="T_B5_30M_M13925_TO_M13955" sheetId="23" r:id="rId12"/>
-    <sheet name="T_B5_170M_M17500_TO_M17670" sheetId="24" r:id="rId13"/>
-    <sheet name="T_B5_357M_M21733_TO_M22090" sheetId="25" r:id="rId14"/>
-    <sheet name="T_B5_95M_M25625_TO_M25720" sheetId="26" r:id="rId15"/>
-    <sheet name="T_B5_88M_M33100_TO_M33188" sheetId="27" r:id="rId16"/>
-    <sheet name="T_B5_450M_M15600_TO_M16050" sheetId="28" r:id="rId17"/>
-    <sheet name="T_B5_2035M_M3615_TO_M5650" sheetId="29" r:id="rId18"/>
-    <sheet name="T_B5_350M_M13350_TO_M13700" sheetId="30" r:id="rId19"/>
-    <sheet name="Equipment Production Rate" sheetId="10" r:id="rId20"/>
-    <sheet name=" Block Placing Production Rate" sheetId="18" r:id="rId21"/>
-    <sheet name="Project_name" sheetId="31" r:id="rId22"/>
+    <sheet name="T_A_44M_M480_TO_M524" sheetId="5" r:id="rId7"/>
+    <sheet name="T_A_35M_M1210_TO_M1245" sheetId="32" r:id="rId8"/>
+    <sheet name="T_A_37M_M8760_TO_M8797" sheetId="33" r:id="rId9"/>
+    <sheet name="T_A_200M_M10100_TO_M10300" sheetId="34" r:id="rId10"/>
+    <sheet name="T_A_110M_M12330_TO_M12440" sheetId="35" r:id="rId11"/>
+    <sheet name="T_A_72M_M12712_TO_M12784" sheetId="36" r:id="rId12"/>
+    <sheet name="T_A_133M_M21600_TO_M21733" sheetId="38" r:id="rId13"/>
+    <sheet name="T_A_105M_M22375_TO_M22480" sheetId="39" r:id="rId14"/>
+    <sheet name="T_A_100M_M25170_TO_M525270" sheetId="37" r:id="rId15"/>
+    <sheet name="T_A_180M_M25720_TO_M25900" sheetId="40" r:id="rId16"/>
+    <sheet name="T_A_78M_M25925_TO_M26003" sheetId="42" r:id="rId17"/>
+    <sheet name="T_B5_425M_M9175_TO_M9600" sheetId="13" r:id="rId18"/>
+    <sheet name="T_B5_167M_M9785_TO_M9952" sheetId="14" r:id="rId19"/>
+    <sheet name="T_B5_100M_M10300_TO_M10400" sheetId="15" r:id="rId20"/>
+    <sheet name="T_B5_255M_M12075_TO_M12330" sheetId="22" r:id="rId21"/>
+    <sheet name="T_B5_150M_M24950_TO_M25100" sheetId="23" r:id="rId22"/>
+    <sheet name="FF_15M_5560M" sheetId="43" r:id="rId23"/>
+    <sheet name="Equipment Production Rate" sheetId="10" r:id="rId24"/>
+    <sheet name=" Block Placing Production Rate" sheetId="18" r:id="rId25"/>
+    <sheet name="Project_name" sheetId="31" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Type_A_665M_M2950_TO_M3615!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">T_A_100M_M25170_TO_M525270!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">T_A_105M_M22375_TO_M22480!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">T_A_110M_M12330_TO_M12440!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">T_A_133M_M21600_TO_M21733!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">T_A_180M_M25720_TO_M25900!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">T_A_200M_M10100_TO_M10300!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">T_A_35M_M1210_TO_M1245!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">T_A_37M_M8760_TO_M8797!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">T_A_44M_M480_TO_M524!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">T_A_72M_M12712_TO_M12784!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">T_A_78M_M25925_TO_M26003!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WBS!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'WBS3'!$A$1:$E$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">'Equipment Production Rate'!$A$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">'Equipment Production Rate'!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -177,9 +191,6 @@
     <t>Daily Prod(8hrs)</t>
   </si>
   <si>
-    <t>Geo Bag Placing(125 Kg)</t>
-  </si>
-  <si>
     <t>Close Turfing</t>
   </si>
   <si>
@@ -384,121 +395,151 @@
     <t>40-670-30</t>
   </si>
   <si>
-    <t>Type_A_665M_M2950_TO_M3615</t>
-  </si>
-  <si>
-    <t>Type A slope protection work of the Noapara Hao Submergible Embankment from M2950  to M3615=665M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_30M_M6900_TO_M6930</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M6900  to M6930=30M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_210M_M8550_TO_M8760</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M8550  to M8760=210M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_353M_M8822_TO_M9175</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M8822  to M9175=353M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_212M_M12440_TO_M12652</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M12440  to M12652=212M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_30M_M13925_TO_M13955</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M13925  to M13955=30M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_170M_M17500_TO_M17670</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M17500  to M17670=170M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_357M_M21733_TO_M22090</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M21733  to M22090=357M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_95M_M25625_TO_M25720</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M25625  to M25720=95M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_88M_M33100_TO_M33188</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Dakshiner Haor Submergible Embankment from M33100  to M33188=88M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_450M_M15600_TO_M16050</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Noapara Haor Submergible Embankment from M15600  to M16050=450M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_2035M_M3615_TO_M5650</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Noapara Haor Submergible Embankment from M3615  to M5650=2035M under HFMLIP</t>
-  </si>
-  <si>
-    <t>Type_B5_350M_M13350_TO_M13700</t>
-  </si>
-  <si>
-    <t>Type B5 slope protection work of the Nunnir Haor  Submergible Embankment from M13350  to M13700=350M under HFMLIP</t>
-  </si>
-  <si>
-    <t>T_B5_30M_M6900_TO_M6930</t>
-  </si>
-  <si>
-    <t>T_B5_210M_M8550_TO_M8760</t>
-  </si>
-  <si>
-    <t>T_B5_353M_M8822_TO_M9175</t>
-  </si>
-  <si>
-    <t>T_B5_212M_M12440_TO_M12652</t>
-  </si>
-  <si>
-    <t>T_B5_30M_M13925_TO_M13955</t>
-  </si>
-  <si>
-    <t>T_B5_170M_M17500_TO_M17670</t>
-  </si>
-  <si>
-    <t>T_B5_357M_M21733_TO_M22090</t>
-  </si>
-  <si>
-    <t>T_B5_95M_M25625_TO_M25720</t>
-  </si>
-  <si>
-    <t>T_B5_88M_M33100_TO_M33188</t>
-  </si>
-  <si>
-    <t>T_B5_450M_M15600_TO_M16050</t>
-  </si>
-  <si>
-    <t>T_B5_2035M_M3615_TO_M5650</t>
-  </si>
-  <si>
-    <t>T_B5_350M_M13350_TO_M13700</t>
-  </si>
-  <si>
-    <t>Submersible Embankment Slope Protection Work at Kishoregonj PW-35</t>
+    <t>Submersible Embankment Slope Protection Work at Kishoregonj PW-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(50X50X50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(50X50X30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CC Block Manufacture(40X40X20)</t>
+  </si>
+  <si>
+    <t>Curing</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ring Bundh construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Excavation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Sand Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing Pea Gravel Filter</t>
+  </si>
+  <si>
+    <t>Geo Bag Placing(175) Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Placing CC Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Ring Bundh Removal</t>
+  </si>
+  <si>
+    <t>FF_15M_5560M</t>
+  </si>
+  <si>
+    <t>Gunnybag</t>
+  </si>
+  <si>
+    <t>Construction of 15M Flood Fuse on  Submersible Embankment   M5560 of   Noagaon Haor under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_425M_M9175_TO_M9600</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dakshiner Haorr Submergible Embankment from M9175  to M9600=425M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_167M_M9785_TO_M9952</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dakshiner Haor  Submergible Embankment from M9785  to M9952=167M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_100M_M10300_TO_M10400</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dakshiner Haor  Submergible Embankment from M10300  to M10400=100M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_255M_M12075_TO_M12330</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dakshiner Haor  Submergible Embankment from M12075 to M12330=255M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_B5_150M_M24950_TO_M25100</t>
+  </si>
+  <si>
+    <t>Type B5 slope protection work of the Dakshiner Haor  Submergible Embankment from M24950  to M25100=150M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_44M_M480_TO_M524</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M480  to M524=44M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_35M_M1210_TO_M1245</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M1210  to M1245=35M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_37M_M8760_TO_M8797</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M8760  to M8797=37M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_200M_M10100_TO_M10300</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M10100  to M10300=200M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_110M_M12330_TO_M12440</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M12330  to M12440=110M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_72M_M12712_TO_M12784</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M12712  to M12784=72M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_133M_M21600_TO_M21733</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M21600  to M21733=133M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_105M_M22375_TO_M22480</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M2735  to M22480=105M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_100M_M25170_TO_M525270</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M25170  to M25720=100M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_180M_M25720_TO_M25900</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of theDakshiner Haor Submergible Embankment from M25720  to M25900=180M under HFMLIP</t>
+  </si>
+  <si>
+    <t>T_A_78M_M25925_TO_M26003</t>
+  </si>
+  <si>
+    <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M25925  to M26003=78M under HFMLIP</t>
   </si>
 </sst>
 </file>
@@ -545,7 +586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +605,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -616,10 +681,43 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -629,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,9 +790,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,26 +799,87 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,17 +1167,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1035,7 +1191,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -1057,7 +1213,7 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -1068,7 +1224,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -1079,10 +1235,10 @@
         <v>201</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1090,10 +1246,10 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,10 +1257,10 @@
         <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1112,7 +1268,7 @@
         <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
@@ -1123,10 +1279,10 @@
         <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1134,10 +1290,10 @@
         <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1145,7 +1301,7 @@
         <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -1156,10 +1312,10 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1167,10 +1323,10 @@
         <v>401</v>
       </c>
       <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1180,17 +1336,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1209,170 +1367,264 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="38">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="24">
-        <v>4166</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="36">
+        <v>6800</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="24">
-        <v>5716</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="36">
+        <v>16376</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1412</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="37">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
         <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="24">
-        <v>4868</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="36">
+        <v>2640</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="36">
+        <v>276</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="36">
+        <v>3118</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="36">
+        <v>312</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="36">
+        <v>23176</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F11" s="37">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1391,169 +1643,267 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="24">
-        <v>2502</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3740</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="24">
-        <v>3433</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9007</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24">
-        <v>848</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="24">
-        <v>2924</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4172</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>438</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4927</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>494</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12747</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
-      </c>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1572,169 +1922,264 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
-        <v>355</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2448</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="11">
-        <v>486</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5896</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11">
-        <v>120</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="11">
-        <v>414</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>951</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1123</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>113</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8344</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1753,169 +2198,264 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="24">
-        <v>2007</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4522</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="24">
-        <v>2753</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10890</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24">
-        <v>680</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>10</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="24">
-        <v>2345</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1756</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>184</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2074</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>208</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15412</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1934,169 +2474,264 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="24">
-        <v>4214</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3570</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="24">
-        <v>5780</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8598</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1428</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="24">
-        <v>4924</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1386</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>145</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1637</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>164</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12168</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2115,169 +2750,264 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1122</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3400</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1539</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8188</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11">
-        <v>380</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1311</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1320</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>138</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1559</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>156</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11588</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2296,169 +3026,264 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1039</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6120</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1425</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>14739</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11">
-        <v>352</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1214</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5413</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>567</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6393</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>641</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20859</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2477,172 +3302,265 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
-        <v>5311</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2652</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="11">
-        <v>7286</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6387</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1800</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>17</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="11">
-        <v>6206</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1030</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>108</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1217</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>122</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9039</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2658,14 +3576,14 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2681,14 +3599,14 @@
       <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="46">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2696,7 +3614,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -2704,14 +3622,14 @@
       <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="11">
-        <v>24016</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="47">
+        <v>6197</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2719,7 +3637,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="8">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -2727,14 +3645,14 @@
       <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11">
-        <v>32947</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="47">
+        <v>6881</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2742,7 +3660,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="8">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -2750,58 +3668,83 @@
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11">
-        <v>8140</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="47">
+        <v>5861</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>30</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="11">
-        <v>28063</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F6" s="46">
         <v>100</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>95</v>
-      </c>
+      <c r="G6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="22"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2810,17 +3753,18 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2839,11 +3783,11 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2862,11 +3806,11 @@
       <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="46">
         <v>100</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2885,11 +3829,11 @@
       <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="24">
-        <v>4131</v>
+      <c r="F3" s="46">
+        <v>2436</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2900,7 +3844,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -2908,11 +3852,11 @@
       <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="24">
-        <v>5667</v>
+      <c r="F4" s="46">
+        <v>2704</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2923,7 +3867,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -2931,11 +3875,11 @@
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="24">
-        <v>1400</v>
+      <c r="F5" s="46">
+        <v>2303</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2943,45 +3887,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="24">
-        <v>4827</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="46">
+        <v>100</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2991,27 +3912,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3020,61 +3941,61 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3082,7 +4003,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -3218,7 +4139,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>
@@ -3286,7 +4207,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
@@ -3354,10 +4275,10 @@
         <v>201</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3422,10 +4343,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3490,10 +4411,10 @@
         <v>203</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3558,10 +4479,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
@@ -3626,7 +4547,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>26</v>
@@ -3694,10 +4615,10 @@
         <v>206</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="16">
         <v>0</v>
@@ -3762,7 +4683,7 @@
         <v>207</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
@@ -3830,7 +4751,7 @@
         <v>208</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>24</v>
@@ -3898,7 +4819,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
@@ -3963,206 +4884,274 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="3">
+        <v>211</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="3">
         <v>301</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>0.7</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>0.11111111111111112</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>0.18518518518518517</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>9.4637223974763401E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>0.04</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <v>0.4</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="3">
         <v>0.1</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L16" s="3">
         <v>0.18</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N16" s="3">
         <v>0.18</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <f>8/1400</f>
         <v>5.7142857142857143E-3</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P16" s="3">
         <v>0.7</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q16" s="3">
         <v>0.1</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R16" s="3">
         <v>0.1</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S16" s="3">
         <v>0.1</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <v>1.6326530612244899E-2</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U16" s="5">
         <v>0.02</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V16" s="5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="3">
+    <row r="17" spans="1:22">
+      <c r="A17" s="3">
         <v>401</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="4">
         <v>210</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>33</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>56</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <v>29</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <v>14</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>12</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>120</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>60</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>54</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M17" s="3">
         <v>5.4</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N17" s="3">
         <v>54</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O17" s="3">
         <v>1.72</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P17" s="3">
         <v>210</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q17" s="3">
         <v>60</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R17" s="3">
         <v>60</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S17" s="3">
         <v>60</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T17" s="3">
         <v>5</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U17" s="5">
         <v>6</v>
       </c>
-      <c r="V16" s="5">
-        <f>V15*300</f>
+      <c r="V17" s="5">
+        <f>V16*300</f>
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:21">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="3:21">
-      <c r="C19" s="15"/>
+    <row r="19" spans="1:22">
       <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="3:21">
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:22">
+      <c r="C20" s="15"/>
       <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="18"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="3:21">
+    <row r="21" spans="1:22">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="J21" s="22"/>
       <c r="K21" s="18"/>
       <c r="L21" s="22"/>
-      <c r="U21" s="19"/>
-    </row>
-    <row r="22" spans="3:21">
+    </row>
+    <row r="22" spans="1:22">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="22"/>
-    </row>
-    <row r="23" spans="3:21">
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="18"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="3:21">
+    <row r="24" spans="1:22">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
+      <c r="E24" s="18"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="3:21">
+    <row r="25" spans="1:22">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4171,47 +5160,1001 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="46">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="46">
+        <v>1458</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="46">
+        <v>1619</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="46">
+        <v>1379</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="46">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="43">
+        <v>7</v>
+      </c>
+      <c r="D2" s="43">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="48">
+        <v>100</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="44">
+        <v>15</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="49">
+        <v>3718</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="44">
+        <v>7</v>
+      </c>
+      <c r="D4" s="43">
+        <v>2</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="49">
+        <v>4129</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="44">
+        <v>7</v>
+      </c>
+      <c r="D5" s="43">
+        <v>2</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="49">
+        <v>3517</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="44">
+        <v>7</v>
+      </c>
+      <c r="D6" s="43">
+        <v>4</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="49">
+        <v>100</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="43">
+        <v>7</v>
+      </c>
+      <c r="D2" s="43">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="48">
+        <v>100</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="44">
+        <v>15</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="50">
+        <v>2187</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="44">
+        <v>7</v>
+      </c>
+      <c r="D4" s="43">
+        <v>2</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="51">
+        <v>2429</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="44">
+        <v>7</v>
+      </c>
+      <c r="D5" s="43">
+        <v>2</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="51">
+        <v>2069</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="44">
+        <v>7</v>
+      </c>
+      <c r="D6" s="43">
+        <v>4</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="49">
+        <v>100</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1798</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="8">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7312</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1781</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3917</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="8">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2052</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1598</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4479</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>460</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3117</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="8">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4">
+        <v>613</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4047</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="34">
+        <v>14808</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1641</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+      <c r="D17" s="35">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="22"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4243,7 +6186,7 @@
         <v>6.1728395061728392E-3</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4275,7 +6218,7 @@
         <v>3.7037037037037038E-3</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4307,7 +6250,7 @@
         <v>3.1545741324921135E-3</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4339,12 +6282,12 @@
         <v>1.5797788309636651E-3</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3">
         <v>30</v>
@@ -4371,7 +6314,7 @@
         <v>1.3333333333333333E-3</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4415,30 +6358,30 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4467,8 +6410,8 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26" t="s">
-        <v>64</v>
+      <c r="A16" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
@@ -4492,7 +6435,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="3">
@@ -4517,7 +6460,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="3">
@@ -4543,7 +6486,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3">
         <v>30</v>
@@ -4568,10 +6511,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
         <v>106</v>
-      </c>
-      <c r="E22" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4580,7 +6523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -4588,11 +6531,11 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4602,16 +6545,16 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3">
         <v>1400</v>
@@ -4622,7 +6565,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3">
         <f>0.4*0.4</f>
@@ -4634,7 +6577,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <f>B3*B4</f>
@@ -4646,19 +6589,19 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3">
         <f>B5*0.1</f>
         <v>22.400000000000006</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3">
         <v>224</v>
@@ -4669,18 +6612,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3">
         <v>22.4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4689,17 +6632,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+    <col min="1" max="1" width="67.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4709,7 +6652,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +6666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4737,10 +6680,10 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4882,13 +6825,13 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5069,17 +7012,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5100,231 +7043,278 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="32">
+    <row r="2" spans="1:5" ht="28.8">
+      <c r="A2" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
         <v>87</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>113</v>
+      <c r="D2" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A3" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="A3" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
         <v>87</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A4" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="D3" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8">
+      <c r="A4" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
         <v>87</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A5" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="D4" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8">
+      <c r="A5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30">
         <v>87</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="D5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8">
+      <c r="A6" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30">
         <v>87</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="D6" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8">
+      <c r="A7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30">
         <v>87</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A8" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="D7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8">
+      <c r="A8" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
         <v>87</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8">
+      <c r="A9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="30">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30">
+        <v>87</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8">
+      <c r="A10" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="30">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30">
+        <v>87</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8">
+      <c r="A11" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="30">
+        <v>1</v>
+      </c>
+      <c r="C11" s="30">
+        <v>87</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8">
+      <c r="A12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>87</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8">
+      <c r="A13" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
+        <v>87</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8">
+      <c r="A14" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30">
+        <v>87</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8">
+      <c r="A15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8">
+      <c r="A16" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8">
+      <c r="A17" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8">
+      <c r="A18" s="29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A9" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="32">
-        <v>1</v>
-      </c>
-      <c r="C9" s="32">
-        <v>87</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="32">
-        <v>87</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A11" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1</v>
-      </c>
-      <c r="C11" s="32">
-        <v>87</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="32">
-        <v>1</v>
-      </c>
-      <c r="C12" s="32">
-        <v>87</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="32">
-        <v>1</v>
-      </c>
-      <c r="C13" s="32">
-        <v>87</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A14" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32">
-        <v>87</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="22"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5336,17 +7326,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5369,7 +7359,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5392,7 +7382,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5403,7 +7393,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -5412,10 +7402,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="4">
-        <v>21058</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>87</v>
+        <v>1496</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5426,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -5435,10 +7425,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="4">
-        <v>55449</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>86</v>
+        <v>3603</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5461,7 +7451,7 @@
         <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5472,7 +7462,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -5481,10 +7471,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="3">
-        <v>7388</v>
+        <v>581</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5495,7 +7485,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -5504,10 +7494,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="3">
-        <v>918</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5518,7 +7508,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -5527,10 +7517,10 @@
         <v>26</v>
       </c>
       <c r="F8" s="3">
-        <v>10767</v>
+        <v>686</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5541,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -5550,10 +7540,10 @@
         <v>25</v>
       </c>
       <c r="F9" s="3">
-        <v>917</v>
+        <v>69</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5564,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -5573,10 +7563,10 @@
         <v>24</v>
       </c>
       <c r="F10" s="3">
-        <v>76507</v>
+        <v>5099</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5599,7 +7589,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5610,17 +7600,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5643,214 +7635,260 @@
         <v>22</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="24">
-        <v>355</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1190</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="24">
-        <v>486</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2866</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
         <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="24">
-        <v>414</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>462</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>49</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>546</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4056</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F11" s="3">
         <v>100</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5872,149 +7910,242 @@
       <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>85</v>
+      <c r="G1" s="21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>-1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
         <v>100</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>89</v>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="16">
-        <v>2479</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1258</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="16">
-        <v>3400</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3030</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16">
-        <v>840</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8">
-        <v>15</v>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="16">
-        <v>2896</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>489</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>52</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>577</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4288</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F11" s="5">
         <v>100</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>95</v>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Civilworks cost/Work Schedule/Schdule Input.xlsx
+++ b/Civilworks cost/Work Schedule/Schdule Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_List" sheetId="19" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -540,6 +540,18 @@
   </si>
   <si>
     <t>Type A slope protection work of the Dakshiner Haor Submergible Embankment from M25925  to M26003=78M under HFMLIP</t>
+  </si>
+  <si>
+    <t>Sheet Pile</t>
+  </si>
+  <si>
+    <t>mton</t>
+  </si>
+  <si>
+    <t>MS Rod</t>
+  </si>
+  <si>
+    <t>Kg</t>
   </si>
 </sst>
 </file>
@@ -1167,12 +1179,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1342,13 +1354,13 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1618,13 +1630,13 @@
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1897,13 +1909,13 @@
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2173,13 +2185,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2449,13 +2461,13 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2725,13 +2737,13 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3001,13 +3013,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3277,13 +3289,13 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3553,11 +3565,11 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3759,12 +3771,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3912,22 +3924,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -4952,199 +4964,320 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="3">
+        <v>212</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="3">
+        <v>213</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="3">
         <v>301</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D18" s="4">
         <v>0.7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E18" s="4">
         <v>0.11111111111111112</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F18" s="4">
         <v>0.18518518518518517</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G18" s="4">
         <v>9.4637223974763401E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H18" s="4">
         <v>4.7393364928909949E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I18" s="4">
         <v>0.04</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J18" s="3">
         <v>0.4</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K18" s="3">
         <v>0.1</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L18" s="3">
         <v>0.18</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M18" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N18" s="3">
         <v>0.18</v>
       </c>
-      <c r="O16">
+      <c r="O18">
         <f>8/1400</f>
         <v>5.7142857142857143E-3</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P18" s="3">
         <v>0.7</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q18" s="3">
         <v>0.1</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R18" s="3">
         <v>0.1</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S18" s="3">
         <v>0.1</v>
       </c>
-      <c r="T16">
+      <c r="T18">
         <v>1.6326530612244899E-2</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U18" s="5">
         <v>0.02</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V18" s="5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="3">
+    <row r="19" spans="1:22">
+      <c r="A19" s="3">
         <v>401</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D19" s="4">
         <v>210</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E19" s="4">
         <v>33</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F19" s="4">
         <v>56</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G19" s="4">
         <v>29</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H19" s="4">
         <v>14</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I19" s="4">
         <v>12</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J19" s="3">
         <v>120</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K19" s="3">
         <v>60</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L19" s="3">
         <v>54</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M19" s="3">
         <v>5.4</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N19" s="3">
         <v>54</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O19" s="3">
         <v>1.72</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P19" s="3">
         <v>210</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q19" s="3">
         <v>60</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R19" s="3">
         <v>60</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S19" s="3">
         <v>60</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T19" s="3">
         <v>5</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U19" s="5">
         <v>6</v>
       </c>
-      <c r="V17" s="5">
-        <f>V16*300</f>
+      <c r="V19" s="5">
+        <f>V18*300</f>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="C20" s="15"/>
-      <c r="D20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="22"/>
-    </row>
     <row r="21" spans="1:22">
-      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="C22" s="1"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="18"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="22"/>
-      <c r="U22" s="19"/>
     </row>
     <row r="23" spans="1:22">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:22">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="18"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="22"/>
+      <c r="U24" s="19"/>
     </row>
     <row r="25" spans="1:22">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -5152,6 +5285,21 @@
     <row r="26" spans="1:22">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
+      <c r="E26" s="18"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5166,11 +5314,11 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5324,11 +5472,11 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5483,11 +5631,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5641,11 +5789,11 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6120,15 +6268,15 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="4" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="42" customHeight="1">
@@ -6531,11 +6679,11 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6640,9 +6788,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.44140625" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -6666,7 +6814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6680,10 +6828,10 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6825,13 +6973,13 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7014,15 +7162,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7043,7 +7191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="29" t="s">
         <v>138</v>
       </c>
@@ -7077,7 +7225,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="29" t="s">
         <v>142</v>
       </c>
@@ -7094,7 +7242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="29" t="s">
         <v>144</v>
       </c>
@@ -7111,7 +7259,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="29" t="s">
         <v>146</v>
       </c>
@@ -7128,7 +7276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="29" t="s">
         <v>148</v>
       </c>
@@ -7145,7 +7293,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="29" t="s">
         <v>150</v>
       </c>
@@ -7162,7 +7310,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="29" t="s">
         <v>152</v>
       </c>
@@ -7179,7 +7327,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="29" t="s">
         <v>154</v>
       </c>
@@ -7196,7 +7344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="29" t="s">
         <v>156</v>
       </c>
@@ -7213,7 +7361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="29" t="s">
         <v>158</v>
       </c>
@@ -7230,7 +7378,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="29" t="s">
         <v>128</v>
       </c>
@@ -7247,7 +7395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="29" t="s">
         <v>130</v>
       </c>
@@ -7264,7 +7412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -7277,7 +7425,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="29" t="s">
         <v>134</v>
       </c>
@@ -7290,7 +7438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="29" t="s">
         <v>136</v>
       </c>
@@ -7303,7 +7451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="29" t="s">
         <v>125</v>
       </c>
@@ -7327,16 +7475,16 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7606,13 +7754,13 @@
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7882,13 +8030,13 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
